--- a/mathTransformed/HMPSTT_(2018-09-16)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-16)_53_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -497,6 +503,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Govt. High School Thirthahalli</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Shimoga. 1</t>
         </is>
       </c>
@@ -524,6 +535,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S NitturHosanagar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -551,6 +567,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>J P N High School</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -578,6 +599,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Paper Town High School Paper Town Bhadravathi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -605,6 +631,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S Kadasuru Sorab</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -632,6 +663,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S BilikiShikaripura</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -659,6 +695,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S Thammadihalli</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -686,6 +727,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S Kanale Sagar</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -713,6 +759,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Sri Parameshwara High School Muduba SiddapuraShikaripura</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -740,6 +791,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S Kattinakaru Sagara</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -767,6 +823,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G U H S Soraba</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -794,6 +855,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Kasturba Girls High School</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -821,6 +887,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S HunshanakatteThirthahalli</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -848,6 +919,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S Kaginalli Shikaripura</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -875,6 +951,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S HunasekatteBhadravathi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -902,6 +983,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Bapuji High School Shikaripura</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -929,6 +1015,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G J C Shikaripura</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -956,6 +1047,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S Kuskur(RMSA)Shikaripura</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -980,6 +1076,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. Girls High School AnavattiSorab</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1007,6 +1108,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S BalemaranahalliBhadravathi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1034,6 +1140,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Sri Channabasaveshwara High School</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -1061,6 +1172,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Kasturba Girls High School</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1088,6 +1204,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G J C Amrutha Hosanagara</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1115,6 +1236,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S Sirigere</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1142,6 +1268,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G J C MalalimakkiThirthahalli</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1169,6 +1300,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G J C HolehonnurBhadravathi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1196,6 +1332,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G G P U C New town Bhadravathi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1223,6 +1364,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S Tadagalale Sagar</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1247,6 +1393,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. High School Durgigudi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1274,6 +1425,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S ThanikalThirthahalli</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1301,6 +1457,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S Subhash NagarSagar</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1328,6 +1489,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S Kommanalu</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1355,6 +1521,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Dr. U R AnanthamurthyG H S Thirthahalli</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1382,6 +1553,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S BavikaisaruThirthahalli</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1409,6 +1585,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>National P U CollegeB R ProjectBhadravathi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1436,6 +1617,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>V S High School NisaraniSorab</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1463,6 +1649,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H S ArasaluHosanagar</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1490,6 +1681,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Channammaji High School AlagerimandriHosanagara</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1517,6 +1713,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S Kadekal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1544,6 +1745,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S Halesoraba Sorab</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1571,6 +1777,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H S BarurSagar</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1598,6 +1809,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G P U C High School SectionMegaravalliThirthahalli</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1625,6 +1841,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Govt. High School SonaleHosanagara</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1652,6 +1873,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S Mavinakere Colony Bhadravathi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1679,6 +1905,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H S Hosur GuddekeriThirthahalli</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -1706,6 +1937,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S Basavani Thirthahalli</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1730,6 +1966,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S Mandaghatta</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1757,6 +1998,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Kalleshwara High School YalageriShikaripur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1784,6 +2030,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G H S Yadur Hosanagara</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1808,6 +2059,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G P U T K RoadBhadravathi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -1835,6 +2091,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S Tumari</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t xml:space="preserve">Sagar Shimoga </t>
         </is>
       </c>
@@ -1862,6 +2123,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S KalmaneShikaripura</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1888,6 +2154,11 @@
         </is>
       </c>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>G H S Nagara Hosanagara</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Shimoga</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-09-16)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-16)_53_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>

--- a/mathTransformed/HMPSTT_(2018-09-16)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-16)_53_4.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Shimoga. 1</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sagar Shimoga </t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
